--- a/data_cleaning/1.test_data/new.xlsx
+++ b/data_cleaning/1.test_data/new.xlsx
@@ -28,7 +28,20 @@
 Module did not run in semester 1, awaiting insight as to why module was timetabled from module coordinator. </t>
       </text>
     </comment>
+    <comment authorId="0" ref="T7" shapeId="0">
+      <text>
+        <t>Mollie:
+Module did not run in semester 1, awaiting insight as to why module was timetabled from module coordinator. </t>
+      </text>
+    </comment>
     <comment authorId="0" ref="G9" shapeId="0">
+      <text>
+        <t>Mollie:
+COMP30520 = 60
+COMP41110 = 19</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="S9" shapeId="0">
       <text>
         <t>Mollie:
 COMP30520 = 60
@@ -136,6 +149,9 @@
     <t>Room capacity: 90</t>
   </si>
   <si>
+    <t>9 Nov - 13 Nov</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monday 2nd </t>
   </si>
   <si>
@@ -226,12 +242,15 @@
     <t>17:00 - 18:00</t>
   </si>
   <si>
+    <t>No class timetabled</t>
+  </si>
+  <si>
+    <t>Unclear if class went ahead</t>
+  </si>
+  <si>
     <t>B0.03</t>
   </si>
   <si>
-    <t>9 Nov - 13 Nov</t>
-  </si>
-  <si>
     <t>COMP20020</t>
   </si>
   <si>
@@ -260,12 +279,6 @@
   </si>
   <si>
     <t>COMP47300</t>
-  </si>
-  <si>
-    <t>No class timetabled</t>
-  </si>
-  <si>
-    <t>Unclear if class went ahead</t>
   </si>
   <si>
     <t>B0.04</t>
@@ -411,6 +424,14 @@
       <sz val="6"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Tahoma"/>
       <charset val="1"/>
       <family val="2"/>
@@ -424,14 +445,6 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="8">
@@ -889,10 +902,10 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
@@ -1023,6 +1036,27 @@
     <xf applyAlignment="1" borderId="20" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1128,27 +1162,6 @@
     <xf applyAlignment="1" borderId="15" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" textRotation="45" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="3" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf applyAlignment="1" borderId="1" fillId="6" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1206,16 +1219,16 @@
     <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="38" fillId="7" fontId="8" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="7" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="7" fontId="8" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="7" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="39" fillId="7" fontId="8" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="39" fillId="7" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="39" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1230,12 +1243,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="4" name="Currency" xfId="0"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="3"/>
-    <cellStyle builtinId="5" name="Percent" xfId="4"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="3"/>
+    <cellStyle builtinId="4" name="Currency" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -1591,41 +1604,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L15" activeCellId="0" pane="topLeft" sqref="L15"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="C1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I17" activeCellId="1" pane="topLeft" sqref="L1:N4 I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="82" width="11.5714285714286"/>
-    <col customWidth="1" max="2" min="2" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="3" min="3" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="4" min="4" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="5" min="5" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="6" min="6" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="7" min="7" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="8" min="8" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="9" min="9" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="10" min="10" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="11" min="11" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="12" min="12" style="82" width="20.5714285714286"/>
-    <col customWidth="1" max="13" min="13" style="82" width="11.5714285714286"/>
-    <col customWidth="1" max="14" min="14" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="15" min="15" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="16" min="16" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="17" min="17" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="18" min="18" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="19" min="19" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="20" min="20" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="21" min="21" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="22" min="22" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="23" min="23" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="1025" min="24" style="82" width="20.5714285714286"/>
+    <col customWidth="1" max="1" min="1" style="47" width="11.5714285714286"/>
+    <col customWidth="1" max="2" min="2" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="3" min="3" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="4" min="4" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="5" min="5" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="6" min="6" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="7" min="7" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="8" min="8" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="9" min="9" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="10" min="10" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="11" min="11" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="12" min="12" style="47" width="20.5714285714286"/>
+    <col customWidth="1" max="13" min="13" style="47" width="11.5714285714286"/>
+    <col customWidth="1" max="14" min="14" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="15" min="15" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="16" min="16" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="17" min="17" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="18" min="18" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="19" min="19" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="20" min="20" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="21" min="21" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="22" min="22" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="23" min="23" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="1025" min="24" style="47" width="20.5714285714286"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="41.25" r="1" s="110" spans="1:11">
+    <row customHeight="1" ht="41.25" r="1" s="110" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,48 +1672,114 @@
       <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="2" s="110" spans="1:11">
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="2" s="110" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="3" s="110" spans="1:11">
+      <c r="V2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="3" s="110" spans="1:23">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="13" t="n">
         <v>29</v>
@@ -1708,7 +1787,7 @@
       <c r="D3" s="10" t="n"/>
       <c r="E3" s="19" t="n"/>
       <c r="F3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="13" t="n">
         <v>29</v>
@@ -1716,115 +1795,231 @@
       <c r="H3" s="10" t="n"/>
       <c r="I3" s="14" t="n"/>
       <c r="J3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="15" t="n">
         <v>38</v>
       </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="4" s="110" spans="1:11">
+      <c r="M3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="P3" s="10" t="n"/>
+      <c r="Q3" s="19" t="n"/>
+      <c r="R3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="T3" s="10" t="n"/>
+      <c r="U3" s="14" t="n"/>
+      <c r="V3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="15" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="4" s="110" spans="1:23">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>53</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="13" t="n">
         <v>45</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="13" t="n">
         <v>53</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="16" t="n">
         <v>45</v>
       </c>
       <c r="J4" s="17" t="n"/>
       <c r="K4" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="41.25" r="5" s="110" spans="1:11">
+      <c r="M4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="13" t="n">
+        <v>53</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="13" t="n">
+        <v>53</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="16" t="n">
+        <v>45</v>
+      </c>
+      <c r="V4" s="17" t="n"/>
+      <c r="W4" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="5" s="110" spans="1:23">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="17" t="n"/>
       <c r="C5" s="19" t="n"/>
       <c r="D5" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>18</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="13" t="n">
         <v>22</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="16" t="n">
         <v>27</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" s="21" t="n">
         <v>29</v>
       </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="6" s="110" spans="1:11">
+      <c r="M5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="17" t="n"/>
+      <c r="O5" s="19" t="n"/>
+      <c r="P5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="21" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="6" s="110" spans="1:23">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="25" t="n">
         <v>22</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="25" t="n">
         <v>27</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="25" t="n">
         <v>60</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="26" t="n">
         <v>18</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6" s="21" t="n">
         <v>29</v>
       </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="7" s="110" spans="1:11">
+      <c r="M6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="25" t="n">
+        <v>22</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="25" t="n">
+        <v>27</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="25" t="n">
+        <v>60</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="26" t="n">
+        <v>18</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="21" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="7" s="110" spans="1:23">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>60</v>
@@ -1832,135 +2027,251 @@
       <c r="D7" s="10" t="n"/>
       <c r="E7" s="19" t="n"/>
       <c r="F7" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="13" t="n">
         <v>60</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="28" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="15" t="n">
         <v>51</v>
       </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="8" s="110" spans="1:11">
+      <c r="M7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="P7" s="10" t="n"/>
+      <c r="Q7" s="19" t="n"/>
+      <c r="R7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="8" s="110" spans="1:23">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="29" t="n">
         <v>18</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="30" t="n">
         <v>42</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="13" t="n">
         <v>38</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="31" t="n">
         <v>42</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" s="16" t="n">
         <v>42</v>
       </c>
-    </row>
-    <row customHeight="1" ht="41.25" r="9" s="110" spans="1:11">
+      <c r="M8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="30" t="n">
+        <v>42</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="31" t="n">
+        <v>42</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="16" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.25" r="9" s="110" spans="1:23">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="32" t="n"/>
       <c r="C9" s="33" t="n"/>
       <c r="D9" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="30" t="n">
         <v>42</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="25" t="n">
         <v>79</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="21" t="n">
         <v>60</v>
       </c>
       <c r="J9" s="36" t="n"/>
       <c r="K9" s="37" t="n"/>
-    </row>
-    <row customHeight="1" ht="41.25" r="10" s="110" spans="1:11">
+      <c r="M9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="32" t="n"/>
+      <c r="O9" s="33" t="n"/>
+      <c r="P9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="30" t="n">
+        <v>42</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="25" t="n">
+        <v>79</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="21" t="n">
+        <v>60</v>
+      </c>
+      <c r="V9" s="36" t="n"/>
+      <c r="W9" s="37" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="10" s="110" spans="1:23">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="39" t="n">
         <v>53</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>27</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="39" t="n">
         <v>22</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="21" t="n">
         <v>60</v>
       </c>
       <c r="J10" s="36" t="n"/>
       <c r="K10" s="37" t="n"/>
-    </row>
-    <row customHeight="1" ht="41.25" r="11" s="110" spans="1:11">
+      <c r="M10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="39" t="n">
+        <v>53</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="39" t="n">
+        <v>27</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="39" t="n">
+        <v>22</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="21" t="n">
+        <v>60</v>
+      </c>
+      <c r="V10" s="36" t="n"/>
+      <c r="W10" s="37" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="11" s="110" spans="1:23">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="39" t="n">
         <v>53</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>27</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="39" t="n">
         <v>22</v>
@@ -1969,11 +2280,82 @@
       <c r="I11" s="40" t="n"/>
       <c r="J11" s="32" t="n"/>
       <c r="K11" s="41" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="12" s="110" spans="1:11"/>
-    <row customHeight="1" ht="41.25" r="13" s="110" spans="1:11"/>
-    <row customHeight="1" ht="41.25" r="14" s="110" spans="1:11"/>
-    <row customHeight="1" ht="13.8" r="15" s="110" spans="1:11"/>
+      <c r="L11" s="47" t="n"/>
+      <c r="M11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="39" t="n">
+        <v>53</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="39" t="n">
+        <v>27</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="39" t="n">
+        <v>22</v>
+      </c>
+      <c r="T11" s="10" t="n"/>
+      <c r="U11" s="40" t="n"/>
+      <c r="V11" s="32" t="n"/>
+      <c r="W11" s="41" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="12" s="110" spans="1:23"/>
+    <row customHeight="1" ht="41.25" r="13" s="110" spans="1:23">
+      <c r="B13" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="44" t="n"/>
+      <c r="D13" s="44" t="n"/>
+      <c r="E13" s="44" t="n"/>
+      <c r="F13" s="44" t="n"/>
+      <c r="G13" s="44" t="n"/>
+      <c r="H13" s="44" t="n"/>
+      <c r="I13" s="44" t="n"/>
+      <c r="J13" s="44" t="n"/>
+      <c r="N13" s="45" t="n"/>
+      <c r="O13" s="45" t="n"/>
+      <c r="P13" s="45" t="n"/>
+      <c r="Q13" s="45" t="n"/>
+      <c r="R13" s="45" t="n"/>
+      <c r="S13" s="45" t="n"/>
+      <c r="T13" s="45" t="n"/>
+      <c r="U13" s="45" t="n"/>
+      <c r="V13" s="45" t="n"/>
+    </row>
+    <row customHeight="1" ht="41.25" r="14" s="110" spans="1:23">
+      <c r="B14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="47" t="n"/>
+      <c r="D14" s="48" t="n"/>
+      <c r="E14" s="48" t="n"/>
+      <c r="F14" s="48" t="n"/>
+      <c r="G14" s="48" t="n"/>
+      <c r="H14" s="48" t="n"/>
+      <c r="I14" s="48" t="n"/>
+      <c r="J14" s="48" t="n"/>
+      <c r="K14" s="48" t="n"/>
+      <c r="N14" s="48" t="n"/>
+      <c r="O14" s="48" t="n"/>
+      <c r="P14" s="48" t="n"/>
+      <c r="Q14" s="48" t="n"/>
+      <c r="R14" s="48" t="n"/>
+      <c r="S14" s="48" t="n"/>
+      <c r="T14" s="48" t="n"/>
+      <c r="U14" s="48" t="n"/>
+      <c r="V14" s="48" t="n"/>
+      <c r="W14" s="48" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.8" r="15" s="110" spans="1:23"/>
+    <row customHeight="1" ht="13.8" r="17" s="110" spans="1:23"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
@@ -1991,492 +2373,616 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H5" activeCellId="0" pane="topLeft" sqref="H5"/>
+      <selection activeCell="H5" activeCellId="1" pane="topLeft" sqref="L1:N4 H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="82" width="11.5714285714286"/>
-    <col customWidth="1" max="2" min="2" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="3" min="3" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="4" min="4" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="5" min="5" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="6" min="6" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="7" min="7" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="8" min="8" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="9" min="9" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="10" min="10" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="11" min="11" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="12" min="12" style="82" width="20.5714285714286"/>
-    <col customWidth="1" max="13" min="13" style="82" width="11.5714285714286"/>
-    <col customWidth="1" max="14" min="14" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="15" min="15" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="16" min="16" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="17" min="17" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="18" min="18" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="19" min="19" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="20" min="20" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="21" min="21" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="22" min="22" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="23" min="23" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="1025" min="24" style="82" width="20.5714285714286"/>
+    <col customWidth="1" max="1" min="1" style="47" width="11.5714285714286"/>
+    <col customWidth="1" max="2" min="2" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="3" min="3" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="4" min="4" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="5" min="5" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="6" min="6" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="7" min="7" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="8" min="8" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="9" min="9" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="10" min="10" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="11" min="11" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="12" min="12" style="47" width="20.5714285714286"/>
+    <col customWidth="1" max="13" min="13" style="47" width="11.5714285714286"/>
+    <col customWidth="1" max="14" min="14" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="15" min="15" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="16" min="16" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="17" min="17" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="18" min="18" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="19" min="19" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="20" min="20" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="21" min="21" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="22" min="22" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="23" min="23" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="1025" min="24" style="47" width="20.5714285714286"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="41.25" r="1" s="110" spans="1:23">
-      <c r="A1" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="n"/>
-      <c r="E1" s="44" t="n"/>
-      <c r="F1" s="44" t="n"/>
-      <c r="G1" s="44" t="n"/>
-      <c r="H1" s="44" t="n"/>
-      <c r="I1" s="44" t="n"/>
-      <c r="J1" s="44" t="n"/>
-      <c r="K1" s="44" t="n"/>
-      <c r="M1" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="44" t="s">
+      <c r="D1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="44" t="n"/>
-      <c r="Q1" s="44" t="n"/>
-      <c r="R1" s="44" t="n"/>
-      <c r="S1" s="44" t="n"/>
-      <c r="T1" s="44" t="n"/>
-      <c r="U1" s="44" t="n"/>
-      <c r="V1" s="44" t="n"/>
-      <c r="W1" s="44" t="n"/>
+      <c r="E1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row customHeight="1" ht="41.25" r="2" s="110" spans="1:23">
-      <c r="A2" s="42" t="n"/>
-      <c r="B2" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="47" t="n"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47" t="n"/>
-      <c r="H2" s="47" t="s">
+      <c r="E2" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="47" t="n"/>
-      <c r="J2" s="47" t="s">
+      <c r="G2" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="47" t="n"/>
-      <c r="M2" s="42" t="n"/>
-      <c r="N2" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="46" t="s">
+      <c r="I2" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="O2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="47" t="n"/>
-      <c r="R2" s="47" t="s">
+      <c r="P2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="47" t="n"/>
-      <c r="T2" s="47" t="s">
+      <c r="Q2" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="47" t="n"/>
-      <c r="V2" s="47" t="s">
+      <c r="S2" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="47" t="n"/>
+      <c r="U2" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row customHeight="1" ht="41.25" r="3" s="110" spans="1:23">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="61" t="n">
+        <v>37</v>
+      </c>
+      <c r="C3" s="68" t="n">
         <v>53</v>
       </c>
-      <c r="D3" s="49" t="n"/>
-      <c r="E3" s="50" t="n"/>
+      <c r="D3" s="56" t="n"/>
+      <c r="E3" s="57" t="n"/>
       <c r="F3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="51" t="n">
+        <v>38</v>
+      </c>
+      <c r="G3" s="58" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" s="15" t="n">
         <v>42</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="52" t="n">
+        <v>37</v>
+      </c>
+      <c r="K3" s="59" t="n">
         <v>45</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="61" t="n">
+        <v>37</v>
+      </c>
+      <c r="O3" s="68" t="n">
         <v>53</v>
       </c>
-      <c r="P3" s="49" t="n"/>
-      <c r="Q3" s="50" t="n"/>
+      <c r="P3" s="56" t="n"/>
+      <c r="Q3" s="57" t="n"/>
       <c r="R3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="51" t="n">
+        <v>38</v>
+      </c>
+      <c r="S3" s="58" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U3" s="15" t="n">
         <v>42</v>
       </c>
       <c r="V3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="52" t="n">
+        <v>37</v>
+      </c>
+      <c r="W3" s="59" t="n">
         <v>45</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="4" s="110" spans="1:23">
       <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="20" t="n"/>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="53" t="n"/>
-      <c r="E4" s="54" t="n"/>
-      <c r="F4" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="49" t="n"/>
-      <c r="I4" s="57" t="n"/>
-      <c r="J4" s="20" t="n"/>
-      <c r="K4" s="52" t="n"/>
+        <v>13</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="68" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" s="60" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="56" t="n"/>
+      <c r="I4" s="64" t="n"/>
+      <c r="J4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="59" t="n">
+        <v>45</v>
+      </c>
       <c r="M4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="20" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="53" t="n"/>
-      <c r="Q4" s="54" t="n"/>
-      <c r="R4" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="49" t="n"/>
-      <c r="U4" s="57" t="n"/>
-      <c r="V4" s="20" t="n"/>
-      <c r="W4" s="52" t="n"/>
+        <v>13</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="68" t="n">
+        <v>53</v>
+      </c>
+      <c r="P4" s="60" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="56" t="n"/>
+      <c r="U4" s="64" t="n"/>
+      <c r="V4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="59" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row customHeight="1" ht="41.25" r="5" s="110" spans="1:23">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="61" t="n">
+        <v>41</v>
+      </c>
+      <c r="C5" s="68" t="n">
         <v>45</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="F5" s="55" t="n"/>
-      <c r="G5" s="56" t="n"/>
-      <c r="H5" s="53" t="n"/>
-      <c r="I5" s="58" t="n"/>
-      <c r="J5" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="60" t="n">
+      <c r="F5" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="60" t="n"/>
+      <c r="I5" s="65" t="n"/>
+      <c r="J5" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="67" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="61" t="n">
+        <v>41</v>
+      </c>
+      <c r="O5" s="68" t="n">
         <v>45</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="R5" s="55" t="n"/>
-      <c r="S5" s="56" t="n"/>
-      <c r="T5" s="53" t="n"/>
-      <c r="U5" s="58" t="n"/>
-      <c r="V5" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="60" t="n">
+      <c r="R5" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="60" t="n"/>
+      <c r="U5" s="65" t="n"/>
+      <c r="V5" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="67" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="6" s="110" spans="1:23">
       <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="20" t="n"/>
-      <c r="C6" s="61" t="n"/>
-      <c r="D6" s="53" t="n"/>
-      <c r="E6" s="54" t="n"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="68" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" s="60" t="n"/>
+      <c r="E6" s="61" t="n"/>
       <c r="F6" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="61" t="n">
+        <v>43</v>
+      </c>
+      <c r="G6" s="68" t="n">
         <v>73</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="J6" s="59" t="n"/>
-      <c r="K6" s="60" t="n"/>
+      <c r="J6" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="67" t="n">
+        <v>0</v>
+      </c>
       <c r="M6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="20" t="n"/>
-      <c r="O6" s="61" t="n"/>
-      <c r="P6" s="53" t="n"/>
-      <c r="Q6" s="54" t="n"/>
+        <v>20</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="68" t="n">
+        <v>45</v>
+      </c>
+      <c r="P6" s="60" t="n"/>
+      <c r="Q6" s="61" t="n"/>
       <c r="R6" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6" s="61" t="n">
+        <v>43</v>
+      </c>
+      <c r="S6" s="68" t="n">
         <v>73</v>
       </c>
       <c r="T6" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U6" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="V6" s="59" t="n"/>
-      <c r="W6" s="60" t="n"/>
+      <c r="V6" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="41.25" r="7" s="110" spans="1:23">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="17" t="n"/>
       <c r="C7" s="19" t="n"/>
-      <c r="D7" s="62" t="s">
-        <v>42</v>
+      <c r="D7" s="69" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="35" t="n"/>
-      <c r="G7" s="61" t="n"/>
-      <c r="H7" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>43</v>
+      <c r="G7" s="68" t="n">
+        <v>73</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>45</v>
       </c>
       <c r="J7" s="17" t="n"/>
       <c r="K7" s="14" t="n"/>
       <c r="M7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="17" t="n"/>
       <c r="O7" s="19" t="n"/>
-      <c r="P7" s="62" t="s">
-        <v>42</v>
+      <c r="P7" s="69" t="s">
+        <v>44</v>
       </c>
       <c r="Q7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="R7" s="35" t="n"/>
-      <c r="S7" s="61" t="n"/>
-      <c r="T7" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="63" t="s">
-        <v>43</v>
+      <c r="S7" s="68" t="n">
+        <v>73</v>
+      </c>
+      <c r="T7" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="70" t="s">
+        <v>45</v>
       </c>
       <c r="V7" s="17" t="n"/>
       <c r="W7" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="8" s="110" spans="1:23">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="64" t="n">
+        <v>41</v>
+      </c>
+      <c r="C8" s="71" t="n">
         <v>33</v>
       </c>
-      <c r="D8" s="65" t="n"/>
-      <c r="E8" s="66" t="n"/>
-      <c r="F8" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="56" t="n">
+      <c r="D8" s="72" t="n"/>
+      <c r="E8" s="73" t="n"/>
+      <c r="F8" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="63" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="77" t="n">
+        <v>65</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="70" t="n">
-        <v>65</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="64" t="n">
+      <c r="O8" s="71" t="n">
         <v>33</v>
       </c>
-      <c r="P8" s="65" t="n"/>
-      <c r="Q8" s="66" t="n"/>
-      <c r="R8" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="56" t="n">
+      <c r="P8" s="72" t="n"/>
+      <c r="Q8" s="73" t="n"/>
+      <c r="R8" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="63" t="n">
         <v>0</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="70" t="n">
+        <v>46</v>
+      </c>
+      <c r="U8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="77" t="n">
         <v>65</v>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="9" s="110" spans="1:23">
       <c r="A9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="20" t="n"/>
-      <c r="C9" s="64" t="n"/>
-      <c r="D9" s="71" t="n"/>
-      <c r="E9" s="72" t="n"/>
-      <c r="F9" s="67" t="n"/>
-      <c r="G9" s="56" t="n"/>
+        <v>29</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="71" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" s="78" t="n"/>
+      <c r="E9" s="79" t="n"/>
+      <c r="F9" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="63" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="69" t="n"/>
-      <c r="K9" s="70" t="n"/>
+        <v>25</v>
+      </c>
+      <c r="I9" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="77" t="n">
+        <v>65</v>
+      </c>
       <c r="M9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="20" t="n"/>
-      <c r="O9" s="64" t="n"/>
-      <c r="P9" s="71" t="n"/>
-      <c r="Q9" s="72" t="n"/>
-      <c r="R9" s="67" t="n"/>
-      <c r="S9" s="56" t="n"/>
+        <v>29</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="71" t="n">
+        <v>33</v>
+      </c>
+      <c r="P9" s="78" t="n"/>
+      <c r="Q9" s="79" t="n"/>
+      <c r="R9" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="63" t="n">
+        <v>0</v>
+      </c>
       <c r="T9" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="69" t="n"/>
-      <c r="W9" s="70" t="n"/>
+        <v>25</v>
+      </c>
+      <c r="U9" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="77" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row customHeight="1" ht="41.25" r="10" s="110" spans="1:23">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="61" t="n">
+        <v>39</v>
+      </c>
+      <c r="C10" s="68" t="n">
         <v>35</v>
       </c>
-      <c r="D10" s="73" t="n"/>
-      <c r="E10" s="74" t="n"/>
-      <c r="F10" s="73" t="n"/>
-      <c r="G10" s="74" t="n"/>
-      <c r="H10" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="75" t="n">
+      <c r="D10" s="80" t="n"/>
+      <c r="E10" s="81" t="n"/>
+      <c r="F10" s="80" t="n"/>
+      <c r="G10" s="81" t="n"/>
+      <c r="H10" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="82" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="36" t="n"/>
       <c r="K10" s="37" t="n"/>
       <c r="M10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="61" t="n">
+        <v>39</v>
+      </c>
+      <c r="O10" s="68" t="n">
         <v>35</v>
       </c>
-      <c r="P10" s="73" t="n"/>
-      <c r="Q10" s="74" t="n"/>
-      <c r="R10" s="73" t="n"/>
-      <c r="S10" s="74" t="n"/>
-      <c r="T10" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="75" t="n">
+      <c r="P10" s="80" t="n"/>
+      <c r="Q10" s="81" t="n"/>
+      <c r="R10" s="80" t="n"/>
+      <c r="S10" s="81" t="n"/>
+      <c r="T10" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="82" t="n">
         <v>0</v>
       </c>
       <c r="V10" s="36" t="n"/>
@@ -2484,148 +2990,96 @@
     </row>
     <row customHeight="1" ht="41.25" r="11" s="110" spans="1:23">
       <c r="A11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="20" t="n"/>
-      <c r="C11" s="61" t="n"/>
-      <c r="D11" s="76" t="n"/>
-      <c r="E11" s="72" t="n"/>
-      <c r="F11" s="76" t="n"/>
-      <c r="G11" s="72" t="n"/>
-      <c r="H11" s="67" t="n"/>
-      <c r="I11" s="75" t="n"/>
+        <v>33</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="68" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" s="83" t="n"/>
+      <c r="E11" s="79" t="n"/>
+      <c r="F11" s="83" t="n"/>
+      <c r="G11" s="79" t="n"/>
+      <c r="H11" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="82" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" s="32" t="n"/>
       <c r="K11" s="41" t="n"/>
-      <c r="L11" s="82" t="n"/>
+      <c r="L11" s="47" t="n"/>
       <c r="M11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="20" t="n"/>
-      <c r="O11" s="61" t="n"/>
-      <c r="P11" s="76" t="n"/>
-      <c r="Q11" s="72" t="n"/>
-      <c r="R11" s="76" t="n"/>
-      <c r="S11" s="72" t="n"/>
-      <c r="T11" s="67" t="n"/>
-      <c r="U11" s="75" t="n"/>
+        <v>33</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="68" t="n">
+        <v>35</v>
+      </c>
+      <c r="P11" s="83" t="n"/>
+      <c r="Q11" s="79" t="n"/>
+      <c r="R11" s="83" t="n"/>
+      <c r="S11" s="79" t="n"/>
+      <c r="T11" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="82" t="n">
+        <v>0</v>
+      </c>
       <c r="V11" s="32" t="n"/>
       <c r="W11" s="41" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="13" s="110" spans="1:23">
-      <c r="B13" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="79" t="n"/>
-      <c r="D13" s="79" t="n"/>
-      <c r="E13" s="79" t="n"/>
-      <c r="F13" s="79" t="n"/>
-      <c r="G13" s="79" t="n"/>
-      <c r="H13" s="79" t="n"/>
-      <c r="I13" s="79" t="n"/>
-      <c r="J13" s="79" t="n"/>
-      <c r="N13" s="80" t="n"/>
-      <c r="O13" s="80" t="n"/>
-      <c r="P13" s="80" t="n"/>
-      <c r="Q13" s="80" t="n"/>
-      <c r="R13" s="80" t="n"/>
-      <c r="S13" s="80" t="n"/>
-      <c r="T13" s="80" t="n"/>
-      <c r="U13" s="80" t="n"/>
-      <c r="V13" s="80" t="n"/>
+      <c r="B13" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="44" t="n"/>
+      <c r="D13" s="44" t="n"/>
+      <c r="E13" s="44" t="n"/>
+      <c r="F13" s="44" t="n"/>
+      <c r="G13" s="44" t="n"/>
+      <c r="H13" s="44" t="n"/>
+      <c r="I13" s="44" t="n"/>
+      <c r="J13" s="44" t="n"/>
+      <c r="N13" s="45" t="n"/>
+      <c r="O13" s="45" t="n"/>
+      <c r="P13" s="45" t="n"/>
+      <c r="Q13" s="45" t="n"/>
+      <c r="R13" s="45" t="n"/>
+      <c r="S13" s="45" t="n"/>
+      <c r="T13" s="45" t="n"/>
+      <c r="U13" s="45" t="n"/>
+      <c r="V13" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="14" s="110" spans="1:23">
-      <c r="B14" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="82" t="n"/>
-      <c r="D14" s="83" t="n"/>
-      <c r="E14" s="83" t="n"/>
-      <c r="F14" s="83" t="n"/>
-      <c r="G14" s="83" t="n"/>
-      <c r="H14" s="83" t="n"/>
-      <c r="I14" s="83" t="n"/>
-      <c r="J14" s="83" t="n"/>
-      <c r="K14" s="83" t="n"/>
-      <c r="N14" s="83" t="n"/>
-      <c r="O14" s="83" t="n"/>
-      <c r="P14" s="83" t="n"/>
-      <c r="Q14" s="83" t="n"/>
-      <c r="R14" s="83" t="n"/>
-      <c r="S14" s="83" t="n"/>
-      <c r="T14" s="83" t="n"/>
-      <c r="U14" s="83" t="n"/>
-      <c r="V14" s="83" t="n"/>
-      <c r="W14" s="83" t="n"/>
+      <c r="B14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="47" t="n"/>
+      <c r="D14" s="48" t="n"/>
+      <c r="E14" s="48" t="n"/>
+      <c r="F14" s="48" t="n"/>
+      <c r="G14" s="48" t="n"/>
+      <c r="H14" s="48" t="n"/>
+      <c r="I14" s="48" t="n"/>
+      <c r="J14" s="48" t="n"/>
+      <c r="K14" s="48" t="n"/>
+      <c r="N14" s="48" t="n"/>
+      <c r="O14" s="48" t="n"/>
+      <c r="P14" s="48" t="n"/>
+      <c r="Q14" s="48" t="n"/>
+      <c r="R14" s="48" t="n"/>
+      <c r="S14" s="48" t="n"/>
+      <c r="T14" s="48" t="n"/>
+      <c r="U14" s="48" t="n"/>
+      <c r="V14" s="48" t="n"/>
+      <c r="W14" s="48" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="N13:V13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-  </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
   <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
@@ -2642,35 +3096,35 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="W3" activeCellId="0" pane="topLeft" sqref="W3"/>
+      <selection activeCell="W3" activeCellId="1" pane="topLeft" sqref="L1:N4 W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="82" width="11.5714285714286"/>
-    <col customWidth="1" max="2" min="2" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="3" min="3" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="4" min="4" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="5" min="5" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="6" min="6" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="7" min="7" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="8" min="8" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="9" min="9" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="10" min="10" style="82" width="14.280612244898"/>
-    <col customWidth="1" max="11" min="11" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="12" min="12" style="82" width="20.5714285714286"/>
-    <col customWidth="1" max="13" min="13" style="82" width="11.5714285714286"/>
-    <col customWidth="1" max="14" min="14" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="15" min="15" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="16" min="16" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="17" min="17" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="18" min="18" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="19" min="19" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="20" min="20" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="21" min="21" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="22" min="22" style="82" width="14.1479591836735"/>
-    <col customWidth="1" max="23" min="23" style="82" width="5.70408163265306"/>
-    <col customWidth="1" max="1025" min="24" style="82" width="20.5714285714286"/>
+    <col customWidth="1" max="1" min="1" style="47" width="11.5714285714286"/>
+    <col customWidth="1" max="2" min="2" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="3" min="3" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="4" min="4" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="5" min="5" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="6" min="6" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="7" min="7" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="8" min="8" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="9" min="9" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="10" min="10" style="47" width="14.280612244898"/>
+    <col customWidth="1" max="11" min="11" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="12" min="12" style="47" width="20.5714285714286"/>
+    <col customWidth="1" max="13" min="13" style="47" width="11.5714285714286"/>
+    <col customWidth="1" max="14" min="14" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="15" min="15" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="16" min="16" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="17" min="17" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="18" min="18" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="19" min="19" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="20" min="20" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="21" min="21" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="22" min="22" style="47" width="14.1479591836735"/>
+    <col customWidth="1" max="23" min="23" style="47" width="5.70408163265306"/>
+    <col customWidth="1" max="1025" min="24" style="47" width="20.5714285714286"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="41.25" r="1" s="110" spans="1:23">
@@ -2683,86 +3137,138 @@
       <c r="C1" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="86" t="n"/>
-      <c r="E1" s="86" t="n"/>
-      <c r="F1" s="86" t="n"/>
-      <c r="G1" s="86" t="n"/>
-      <c r="H1" s="86" t="n"/>
-      <c r="I1" s="86" t="n"/>
-      <c r="J1" s="86" t="n"/>
-      <c r="K1" s="86" t="n"/>
+      <c r="D1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>48</v>
+      </c>
       <c r="M1" s="84" t="s">
         <v>47</v>
       </c>
       <c r="N1" s="85" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="O1" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="86" t="n"/>
-      <c r="Q1" s="86" t="n"/>
-      <c r="R1" s="86" t="n"/>
-      <c r="S1" s="86" t="n"/>
-      <c r="T1" s="86" t="n"/>
-      <c r="U1" s="86" t="n"/>
-      <c r="V1" s="86" t="n"/>
-      <c r="W1" s="86" t="n"/>
+      <c r="P1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="86" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row customHeight="1" ht="41.25" r="2" s="110" spans="1:23">
-      <c r="A2" s="84" t="n"/>
+      <c r="A2" s="84" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="O2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="89" t="n"/>
-      <c r="F2" s="89" t="s">
+      <c r="P2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="89" t="n"/>
-      <c r="H2" s="90" t="s">
+      <c r="Q2" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="90" t="n"/>
-      <c r="J2" s="90" t="s">
+      <c r="S2" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="90" t="n"/>
-      <c r="M2" s="84" t="n"/>
-      <c r="N2" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="89" t="n"/>
-      <c r="R2" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="89" t="n"/>
-      <c r="T2" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="89" t="n"/>
+      <c r="U2" s="89" t="s">
+        <v>8</v>
+      </c>
       <c r="V2" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="W2" s="89" t="n"/>
+        <v>9</v>
+      </c>
+      <c r="W2" s="89" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row customHeight="1" ht="41.25" r="3" s="110" spans="1:23">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="92" t="n">
         <v>79</v>
@@ -2774,7 +3280,7 @@
         <v>143</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="92" t="n">
         <v>79</v>
@@ -2788,10 +3294,10 @@
       <c r="J3" s="94" t="n"/>
       <c r="K3" s="95" t="n"/>
       <c r="M3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" s="91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" s="92" t="n">
         <v>79</v>
@@ -2803,7 +3309,7 @@
         <v>143</v>
       </c>
       <c r="R3" s="93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S3" s="92" t="n">
         <v>79</v>
@@ -2819,7 +3325,7 @@
     </row>
     <row customHeight="1" ht="41.25" r="4" s="110" spans="1:23">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="96" t="s">
         <v>50</v>
@@ -2848,7 +3354,7 @@
         <v>96</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N4" s="98" t="n"/>
       <c r="O4" s="99" t="n"/>
@@ -2875,10 +3381,14 @@
     </row>
     <row customHeight="1" ht="41.25" r="5" s="110" spans="1:23">
       <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="96" t="n"/>
-      <c r="C5" s="97" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="97" t="n">
+        <v>49</v>
+      </c>
       <c r="D5" s="91" t="s">
         <v>54</v>
       </c>
@@ -2886,13 +3396,13 @@
         <v>107</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="92" t="n">
         <v>98</v>
       </c>
       <c r="H5" s="91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="92" t="n">
         <v>139</v>
@@ -2904,7 +3414,7 @@
         <v>84</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5" s="100" t="n"/>
       <c r="O5" s="101" t="n"/>
@@ -2915,13 +3425,13 @@
         <v>107</v>
       </c>
       <c r="R5" s="91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S5" s="92" t="n">
         <v>98</v>
       </c>
       <c r="T5" s="91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U5" s="92" t="n">
         <v>139</v>
@@ -2935,16 +3445,16 @@
     </row>
     <row customHeight="1" ht="41.25" r="6" s="110" spans="1:23">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="92" t="n">
         <v>98</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="92" t="n">
         <v>139</v>
@@ -2964,16 +3474,16 @@
       <c r="J6" s="94" t="n"/>
       <c r="K6" s="95" t="n"/>
       <c r="M6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N6" s="91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O6" s="92" t="n">
         <v>98</v>
       </c>
       <c r="P6" s="91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="92" t="n">
         <v>139</v>
@@ -2995,13 +3505,13 @@
     </row>
     <row customHeight="1" ht="41.25" r="7" s="110" spans="1:23">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="91" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="91" t="s">
         <v>58</v>
@@ -3024,7 +3534,7 @@
         <v>103</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="94" t="n"/>
       <c r="O7" s="95" t="n"/>
@@ -3051,7 +3561,7 @@
     </row>
     <row customHeight="1" ht="41.25" r="8" s="110" spans="1:23">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="91" t="s">
         <v>60</v>
@@ -3080,7 +3590,7 @@
         <v>113</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" s="91" t="s">
         <v>60</v>
@@ -3111,7 +3621,7 @@
     </row>
     <row customHeight="1" ht="41.25" r="9" s="110" spans="1:23">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="91" t="s">
         <v>63</v>
@@ -3134,13 +3644,13 @@
       <c r="H9" s="94" t="n"/>
       <c r="I9" s="95" t="n"/>
       <c r="J9" s="91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" s="92" t="n">
         <v>38</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N9" s="91" t="s">
         <v>63</v>
@@ -3163,7 +3673,7 @@
       <c r="T9" s="94" t="n"/>
       <c r="U9" s="95" t="n"/>
       <c r="V9" s="91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W9" s="92" t="n">
         <v>38</v>
@@ -3171,7 +3681,7 @@
     </row>
     <row customHeight="1" ht="41.25" r="10" s="110" spans="1:23">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="94" t="n"/>
       <c r="C10" s="95" t="n"/>
@@ -3188,7 +3698,7 @@
       <c r="J10" s="94" t="n"/>
       <c r="K10" s="95" t="n"/>
       <c r="M10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" s="94" t="n"/>
       <c r="O10" s="95" t="n"/>
@@ -3207,7 +3717,7 @@
     </row>
     <row customHeight="1" ht="41.25" r="11" s="110" spans="1:23">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="94" t="n"/>
       <c r="C11" s="95" t="n"/>
@@ -3219,9 +3729,9 @@
       <c r="I11" s="95" t="n"/>
       <c r="J11" s="94" t="n"/>
       <c r="K11" s="95" t="n"/>
-      <c r="L11" s="82" t="n"/>
+      <c r="L11" s="47" t="n"/>
       <c r="M11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N11" s="94" t="n"/>
       <c r="O11" s="95" t="n"/>
@@ -3235,78 +3745,52 @@
       <c r="W11" s="95" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="13" s="110" spans="1:23">
-      <c r="B13" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="79" t="n"/>
-      <c r="D13" s="79" t="n"/>
-      <c r="E13" s="79" t="n"/>
-      <c r="F13" s="79" t="n"/>
-      <c r="G13" s="79" t="n"/>
-      <c r="H13" s="79" t="n"/>
-      <c r="I13" s="79" t="n"/>
-      <c r="J13" s="79" t="n"/>
-      <c r="N13" s="80" t="n"/>
-      <c r="O13" s="80" t="n"/>
-      <c r="P13" s="80" t="n"/>
-      <c r="Q13" s="80" t="n"/>
-      <c r="R13" s="80" t="n"/>
-      <c r="S13" s="80" t="n"/>
-      <c r="T13" s="80" t="n"/>
-      <c r="U13" s="80" t="n"/>
-      <c r="V13" s="80" t="n"/>
+      <c r="B13" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="44" t="n"/>
+      <c r="D13" s="44" t="n"/>
+      <c r="E13" s="44" t="n"/>
+      <c r="F13" s="44" t="n"/>
+      <c r="G13" s="44" t="n"/>
+      <c r="H13" s="44" t="n"/>
+      <c r="I13" s="44" t="n"/>
+      <c r="J13" s="44" t="n"/>
+      <c r="N13" s="45" t="n"/>
+      <c r="O13" s="45" t="n"/>
+      <c r="P13" s="45" t="n"/>
+      <c r="Q13" s="45" t="n"/>
+      <c r="R13" s="45" t="n"/>
+      <c r="S13" s="45" t="n"/>
+      <c r="T13" s="45" t="n"/>
+      <c r="U13" s="45" t="n"/>
+      <c r="V13" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="41.25" r="14" s="110" spans="1:23">
-      <c r="B14" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="82" t="n"/>
-      <c r="D14" s="83" t="n"/>
-      <c r="E14" s="83" t="n"/>
-      <c r="F14" s="83" t="n"/>
-      <c r="G14" s="83" t="n"/>
-      <c r="H14" s="83" t="n"/>
-      <c r="I14" s="83" t="n"/>
-      <c r="J14" s="83" t="n"/>
-      <c r="K14" s="83" t="n"/>
-      <c r="N14" s="83" t="n"/>
-      <c r="O14" s="83" t="n"/>
-      <c r="P14" s="83" t="n"/>
-      <c r="Q14" s="83" t="n"/>
-      <c r="R14" s="83" t="n"/>
-      <c r="S14" s="83" t="n"/>
-      <c r="T14" s="83" t="n"/>
-      <c r="U14" s="83" t="n"/>
-      <c r="V14" s="83" t="n"/>
-      <c r="W14" s="83" t="n"/>
+      <c r="B14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="47" t="n"/>
+      <c r="D14" s="48" t="n"/>
+      <c r="E14" s="48" t="n"/>
+      <c r="F14" s="48" t="n"/>
+      <c r="G14" s="48" t="n"/>
+      <c r="H14" s="48" t="n"/>
+      <c r="I14" s="48" t="n"/>
+      <c r="J14" s="48" t="n"/>
+      <c r="K14" s="48" t="n"/>
+      <c r="N14" s="48" t="n"/>
+      <c r="O14" s="48" t="n"/>
+      <c r="P14" s="48" t="n"/>
+      <c r="Q14" s="48" t="n"/>
+      <c r="R14" s="48" t="n"/>
+      <c r="S14" s="48" t="n"/>
+      <c r="T14" s="48" t="n"/>
+      <c r="U14" s="48" t="n"/>
+      <c r="V14" s="48" t="n"/>
+      <c r="W14" s="48" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="N13:V13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-  </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
   <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
@@ -3323,16 +3807,16 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="L22" activeCellId="0" pane="topLeft" sqref="L22"/>
+      <selection activeCell="L22" activeCellId="1" pane="topLeft" sqref="L1:N4 L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="82" width="14.5714285714286"/>
-    <col customWidth="1" max="5" min="2" style="82" width="9.70918367346939"/>
-    <col customWidth="1" max="6" min="6" style="82" width="14.5714285714286"/>
-    <col customWidth="1" max="9" min="7" style="82" width="8.29081632653061"/>
-    <col customWidth="1" max="1025" min="10" style="82" width="8.72959183673469"/>
+    <col customWidth="1" max="1" min="1" style="47" width="14.5714285714286"/>
+    <col customWidth="1" max="5" min="2" style="47" width="9.70918367346939"/>
+    <col customWidth="1" max="6" min="6" style="47" width="14.5714285714286"/>
+    <col customWidth="1" max="9" min="7" style="47" width="8.29081632653061"/>
+    <col customWidth="1" max="1025" min="10" style="47" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="17.25" r="1" s="110" spans="1:9">
@@ -3361,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>47</v>
@@ -3373,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>47</v>
@@ -3381,7 +3865,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="3" s="110" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>29</v>
@@ -3393,7 +3877,7 @@
         <v>79</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="n">
         <v>29</v>
@@ -3407,7 +3891,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="4" s="110" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>53</v>
@@ -3419,7 +3903,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>53</v>
@@ -3433,7 +3917,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="5" s="110" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>0</v>
@@ -3445,7 +3929,7 @@
         <v>49</v>
       </c>
       <c r="F5" s="107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>0</v>
@@ -3459,7 +3943,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="6" s="110" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>22</v>
@@ -3471,7 +3955,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>22</v>
@@ -3485,7 +3969,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="7" s="110" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>60</v>
@@ -3494,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>60</v>
@@ -3511,7 +3995,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="8" s="110" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>18</v>
@@ -3523,7 +4007,7 @@
         <v>66</v>
       </c>
       <c r="F8" s="107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="n">
         <v>18</v>
@@ -3537,7 +4021,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="9" s="110" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>0</v>
@@ -3549,7 +4033,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>0</v>
@@ -3563,7 +4047,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="10" s="110" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>53</v>
@@ -3575,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>53</v>
@@ -3589,7 +4073,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="11" s="110" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>53</v>
@@ -3601,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>53</v>
@@ -3624,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>47</v>
@@ -3636,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>47</v>
@@ -3644,7 +4128,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="14" s="110" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>0</v>
@@ -3656,7 +4140,7 @@
         <v>143</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>0</v>
@@ -3670,7 +4154,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="15" s="110" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>45</v>
@@ -3682,7 +4166,7 @@
         <v>112</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>45</v>
@@ -3696,7 +4180,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="16" s="110" spans="1:9">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>18</v>
@@ -3708,7 +4192,7 @@
         <v>107</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>18</v>
@@ -3722,7 +4206,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="17" s="110" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>27</v>
@@ -3734,7 +4218,7 @@
         <v>139</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="n">
         <v>27</v>
@@ -3748,25 +4232,25 @@
     </row>
     <row customHeight="1" ht="17.25" r="18" s="110" spans="1:9">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>103</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I18" s="7" t="n">
         <v>103</v>
@@ -3774,7 +4258,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="19" s="110" spans="1:9">
       <c r="A19" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>42</v>
@@ -3786,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G19" s="7" t="n">
         <v>42</v>
@@ -3800,7 +4284,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="20" s="110" spans="1:9">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>42</v>
@@ -3812,7 +4296,7 @@
         <v>108</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G20" s="7" t="n">
         <v>42</v>
@@ -3826,7 +4310,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="21" s="110" spans="1:9">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>27</v>
@@ -3838,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="n">
         <v>27</v>
@@ -3852,7 +4336,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="22" s="110" spans="1:9">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>27</v>
@@ -3864,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" s="7" t="n">
         <v>27</v>
@@ -3887,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>47</v>
@@ -3899,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>47</v>
@@ -3907,7 +4391,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="25" s="110" spans="1:9">
       <c r="A25" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>29</v>
@@ -3919,7 +4403,7 @@
         <v>79</v>
       </c>
       <c r="F25" s="107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="7" t="n">
         <v>29</v>
@@ -3933,7 +4417,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="26" s="110" spans="1:9">
       <c r="A26" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>53</v>
@@ -3945,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="7" t="n">
         <v>53</v>
@@ -3959,7 +4443,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="27" s="110" spans="1:9">
       <c r="A27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" s="7" t="n">
         <v>22</v>
@@ -3971,7 +4455,7 @@
         <v>98</v>
       </c>
       <c r="F27" s="107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="7" t="n">
         <v>22</v>
@@ -3985,7 +4469,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="28" s="110" spans="1:9">
       <c r="A28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>60</v>
@@ -3997,7 +4481,7 @@
         <v>74</v>
       </c>
       <c r="F28" s="107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G28" s="7" t="n">
         <v>60</v>
@@ -4011,7 +4495,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="29" s="110" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>60</v>
@@ -4023,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="7" t="n">
         <v>60</v>
@@ -4037,7 +4521,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="30" s="110" spans="1:9">
       <c r="A30" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="7" t="n">
         <v>38</v>
@@ -4049,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G30" s="7" t="n">
         <v>38</v>
@@ -4063,7 +4547,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="31" s="110" spans="1:9">
       <c r="A31" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7" t="n">
         <v>79</v>
@@ -4075,7 +4559,7 @@
         <v>84</v>
       </c>
       <c r="F31" s="107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G31" s="7" t="n">
         <v>79</v>
@@ -4089,7 +4573,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="32" s="110" spans="1:9">
       <c r="A32" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>22</v>
@@ -4101,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="n">
         <v>22</v>
@@ -4115,7 +4599,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="33" s="110" spans="1:9">
       <c r="A33" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>22</v>
@@ -4127,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="7" t="n">
         <v>22</v>
@@ -4150,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>47</v>
@@ -4162,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>47</v>
@@ -4170,7 +4654,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="36" s="110" spans="1:9">
       <c r="A36" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>0</v>
@@ -4182,7 +4666,7 @@
         <v>143</v>
       </c>
       <c r="F36" s="107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" s="7" t="n">
         <v>0</v>
@@ -4196,7 +4680,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="37" s="110" spans="1:9">
       <c r="A37" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" s="7" t="n">
         <v>45</v>
@@ -4208,7 +4692,7 @@
         <v>56</v>
       </c>
       <c r="F37" s="107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" s="7" t="n">
         <v>45</v>
@@ -4222,7 +4706,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="38" s="110" spans="1:9">
       <c r="A38" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>27</v>
@@ -4234,7 +4718,7 @@
         <v>139</v>
       </c>
       <c r="F38" s="107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" s="7" t="n">
         <v>27</v>
@@ -4248,7 +4732,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="39" s="110" spans="1:9">
       <c r="A39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" s="7" t="n">
         <v>18</v>
@@ -4260,7 +4744,7 @@
         <v>107</v>
       </c>
       <c r="F39" s="107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G39" s="7" t="n">
         <v>18</v>
@@ -4274,25 +4758,25 @@
     </row>
     <row customHeight="1" ht="17.25" r="40" s="110" spans="1:9">
       <c r="A40" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>0</v>
       </c>
       <c r="C40" s="108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D40" s="7" t="n">
         <v>113</v>
       </c>
       <c r="F40" s="107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G40" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I40" s="7" t="n">
         <v>113</v>
@@ -4300,7 +4784,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="41" s="110" spans="1:9">
       <c r="A41" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>42</v>
@@ -4312,7 +4796,7 @@
         <v>83</v>
       </c>
       <c r="F41" s="107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G41" s="7" t="n">
         <v>42</v>
@@ -4326,7 +4810,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="42" s="110" spans="1:9">
       <c r="A42" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>60</v>
@@ -4338,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G42" s="7" t="n">
         <v>60</v>
@@ -4352,7 +4836,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="43" s="110" spans="1:9">
       <c r="A43" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" s="7" t="n">
         <v>0</v>
@@ -4364,7 +4848,7 @@
         <v>108</v>
       </c>
       <c r="F43" s="107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" s="7" t="n">
         <v>60</v>
@@ -4378,7 +4862,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="44" s="110" spans="1:9">
       <c r="A44" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>0</v>
@@ -4390,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G44" s="7" t="n">
         <v>0</v>
@@ -4403,7 +4887,7 @@
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="45" s="110" spans="1:9">
-      <c r="D45" s="82" t="n"/>
+      <c r="D45" s="47" t="n"/>
       <c r="F45" s="109" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="46" s="110" spans="1:9">
@@ -4414,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>47</v>
@@ -4426,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>47</v>
@@ -4434,7 +4918,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="47" s="110" spans="1:9">
       <c r="A47" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" s="7" t="n">
         <v>38</v>
@@ -4446,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G47" s="7" t="n">
         <v>38</v>
@@ -4460,7 +4944,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="48" s="110" spans="1:9">
       <c r="A48" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" s="7" t="n">
         <v>0</v>
@@ -4472,7 +4956,7 @@
         <v>96</v>
       </c>
       <c r="F48" s="107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" s="7" t="n">
         <v>0</v>
@@ -4486,7 +4970,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="49" s="110" spans="1:9">
       <c r="A49" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" s="7" t="n">
         <v>29</v>
@@ -4498,7 +4982,7 @@
         <v>84</v>
       </c>
       <c r="F49" s="107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" s="7" t="n">
         <v>29</v>
@@ -4512,7 +4996,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="50" s="110" spans="1:9">
       <c r="A50" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B50" s="7" t="n">
         <v>0</v>
@@ -4524,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G50" s="7" t="n">
         <v>29</v>
@@ -4538,7 +5022,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="51" s="110" spans="1:9">
       <c r="A51" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51" s="7" t="n">
         <v>51</v>
@@ -4550,7 +5034,7 @@
         <v>103</v>
       </c>
       <c r="F51" s="107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G51" s="7" t="n">
         <v>51</v>
@@ -4564,7 +5048,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="52" s="110" spans="1:9">
       <c r="A52" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" s="7" t="n">
         <v>42</v>
@@ -4576,7 +5060,7 @@
         <v>113</v>
       </c>
       <c r="F52" s="107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G52" s="7" t="n">
         <v>42</v>
@@ -4590,7 +5074,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="53" s="110" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>0</v>
@@ -4602,7 +5086,7 @@
         <v>38</v>
       </c>
       <c r="F53" s="107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G53" s="7" t="n">
         <v>0</v>
@@ -4616,7 +5100,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="54" s="110" spans="1:9">
       <c r="A54" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>0</v>
@@ -4628,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G54" s="7" t="n">
         <v>0</v>
@@ -4642,7 +5126,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="55" s="110" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55" s="7" t="n">
         <v>0</v>
@@ -4654,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" s="7" t="n">
         <v>0</v>
